--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="151">
   <si>
     <t>模块</t>
   </si>
@@ -98,6 +98,384 @@
   <si>
     <t>案例2的预期步骤</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块3</t>
+  </si>
+  <si>
+    <t>模块4</t>
+  </si>
+  <si>
+    <t>模块5</t>
+  </si>
+  <si>
+    <t>模块6</t>
+  </si>
+  <si>
+    <t>模块7</t>
+  </si>
+  <si>
+    <t>模块8</t>
+  </si>
+  <si>
+    <t>模块9</t>
+  </si>
+  <si>
+    <t>模块10</t>
+  </si>
+  <si>
+    <t>模块11</t>
+  </si>
+  <si>
+    <t>模块12</t>
+  </si>
+  <si>
+    <t>模块13</t>
+  </si>
+  <si>
+    <t>模块14</t>
+  </si>
+  <si>
+    <t>模块15</t>
+  </si>
+  <si>
+    <t>模块16</t>
+  </si>
+  <si>
+    <t>模块17</t>
+  </si>
+  <si>
+    <t>模块18</t>
+  </si>
+  <si>
+    <t>模块19</t>
+  </si>
+  <si>
+    <t>模块20</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000213</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000214</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000215</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000216</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000217</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000218</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000219</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000220</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000221</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000222</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000223</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000224</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000225</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000226</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000227</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000228</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000229</t>
+  </si>
+  <si>
+    <t>TT201905045_ST_T_000230</t>
+  </si>
+  <si>
+    <t>案例名称3</t>
+  </si>
+  <si>
+    <t>案例名称4</t>
+  </si>
+  <si>
+    <t>案例名称5</t>
+  </si>
+  <si>
+    <t>案例名称6</t>
+  </si>
+  <si>
+    <t>案例名称7</t>
+  </si>
+  <si>
+    <t>案例名称8</t>
+  </si>
+  <si>
+    <t>案例名称9</t>
+  </si>
+  <si>
+    <t>案例名称10</t>
+  </si>
+  <si>
+    <t>案例名称11</t>
+  </si>
+  <si>
+    <t>案例名称12</t>
+  </si>
+  <si>
+    <t>案例名称13</t>
+  </si>
+  <si>
+    <t>案例名称14</t>
+  </si>
+  <si>
+    <t>案例名称15</t>
+  </si>
+  <si>
+    <t>案例名称16</t>
+  </si>
+  <si>
+    <t>案例名称17</t>
+  </si>
+  <si>
+    <t>案例名称18</t>
+  </si>
+  <si>
+    <t>案例名称19</t>
+  </si>
+  <si>
+    <t>案例名称20</t>
+  </si>
+  <si>
+    <t>案例描述3</t>
+  </si>
+  <si>
+    <t>案例描述4</t>
+  </si>
+  <si>
+    <t>案例描述5</t>
+  </si>
+  <si>
+    <t>案例描述6</t>
+  </si>
+  <si>
+    <t>案例描述7</t>
+  </si>
+  <si>
+    <t>案例描述8</t>
+  </si>
+  <si>
+    <t>案例描述9</t>
+  </si>
+  <si>
+    <t>案例描述10</t>
+  </si>
+  <si>
+    <t>案例描述11</t>
+  </si>
+  <si>
+    <t>案例描述12</t>
+  </si>
+  <si>
+    <t>案例描述13</t>
+  </si>
+  <si>
+    <t>案例描述14</t>
+  </si>
+  <si>
+    <t>案例描述15</t>
+  </si>
+  <si>
+    <t>案例描述16</t>
+  </si>
+  <si>
+    <t>案例描述17</t>
+  </si>
+  <si>
+    <t>案例描述18</t>
+  </si>
+  <si>
+    <t>案例描述19</t>
+  </si>
+  <si>
+    <t>案例描述20</t>
+  </si>
+  <si>
+    <t>案例3的前置条件</t>
+  </si>
+  <si>
+    <t>案例4的前置条件</t>
+  </si>
+  <si>
+    <t>案例5的前置条件</t>
+  </si>
+  <si>
+    <t>案例6的前置条件</t>
+  </si>
+  <si>
+    <t>案例7的前置条件</t>
+  </si>
+  <si>
+    <t>案例8的前置条件</t>
+  </si>
+  <si>
+    <t>案例9的前置条件</t>
+  </si>
+  <si>
+    <t>案例10的前置条件</t>
+  </si>
+  <si>
+    <t>案例11的前置条件</t>
+  </si>
+  <si>
+    <t>案例12的前置条件</t>
+  </si>
+  <si>
+    <t>案例13的前置条件</t>
+  </si>
+  <si>
+    <t>案例14的前置条件</t>
+  </si>
+  <si>
+    <t>案例15的前置条件</t>
+  </si>
+  <si>
+    <t>案例16的前置条件</t>
+  </si>
+  <si>
+    <t>案例17的前置条件</t>
+  </si>
+  <si>
+    <t>案例18的前置条件</t>
+  </si>
+  <si>
+    <t>案例19的前置条件</t>
+  </si>
+  <si>
+    <t>案例20的前置条件</t>
+  </si>
+  <si>
+    <t>案例2的测试步骤</t>
+  </si>
+  <si>
+    <t>案例3的预期步骤</t>
+  </si>
+  <si>
+    <t>案例3的测试步骤</t>
+  </si>
+  <si>
+    <t>案例4的预期步骤</t>
+  </si>
+  <si>
+    <t>案例4的测试步骤</t>
+  </si>
+  <si>
+    <t>案例5的预期步骤</t>
+  </si>
+  <si>
+    <t>案例5的测试步骤</t>
+  </si>
+  <si>
+    <t>案例6的预期步骤</t>
+  </si>
+  <si>
+    <t>案例6的测试步骤</t>
+  </si>
+  <si>
+    <t>案例7的预期步骤</t>
+  </si>
+  <si>
+    <t>案例7的测试步骤</t>
+  </si>
+  <si>
+    <t>案例8的预期步骤</t>
+  </si>
+  <si>
+    <t>案例8的测试步骤</t>
+  </si>
+  <si>
+    <t>案例9的预期步骤</t>
+  </si>
+  <si>
+    <t>案例9的测试步骤</t>
+  </si>
+  <si>
+    <t>案例10的预期步骤</t>
+  </si>
+  <si>
+    <t>案例10的测试步骤</t>
+  </si>
+  <si>
+    <t>案例11的预期步骤</t>
+  </si>
+  <si>
+    <t>案例3的预期结果</t>
+  </si>
+  <si>
+    <t>案例4的预期结果</t>
+  </si>
+  <si>
+    <t>案例5的预期结果</t>
+  </si>
+  <si>
+    <t>案例6的预期结果</t>
+  </si>
+  <si>
+    <t>案例7的预期结果</t>
+  </si>
+  <si>
+    <t>案例8的预期结果</t>
+  </si>
+  <si>
+    <t>案例9的预期结果</t>
+  </si>
+  <si>
+    <t>案例10的预期结果</t>
+  </si>
+  <si>
+    <t>案例11的预期结果</t>
+  </si>
+  <si>
+    <t>案例12的预期结果</t>
+  </si>
+  <si>
+    <t>案例13的预期结果</t>
+  </si>
+  <si>
+    <t>案例14的预期结果</t>
+  </si>
+  <si>
+    <t>案例15的预期结果</t>
+  </si>
+  <si>
+    <t>案例16的预期结果</t>
+  </si>
+  <si>
+    <t>案例17的预期结果</t>
+  </si>
+  <si>
+    <t>案例18的预期结果</t>
+  </si>
+  <si>
+    <t>案例19的预期结果</t>
+  </si>
+  <si>
+    <t>案例20的预期结果</t>
   </si>
 </sst>
 </file>
@@ -444,10 +822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I5"/>
+  <dimension ref="A2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -501,7 +879,7 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -530,7 +908,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -552,6 +930,528 @@
       </c>
       <c r="I5" s="1">
         <v>43598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="1">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="1">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="1">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" t="s">
+        <v>140</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="1">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="1">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" t="s">
+        <v>143</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="1">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" t="s">
+        <v>144</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="1">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="1">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="1">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="1">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="1">
+        <v>43598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" t="s">
+        <v>131</v>
+      </c>
+      <c r="G22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" s="1">
+        <v>43599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" t="s">
+        <v>150</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="1">
+        <v>43599</v>
       </c>
     </row>
   </sheetData>
